--- a/Versuch10/datasets/wasser2.xlsx
+++ b/Versuch10/datasets/wasser2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch10\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06532D63-A657-46D5-B5BA-0D54F7E4985A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B74DE29-2934-439E-A35D-0281A23CBC4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16452" windowHeight="6036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,12 +942,12 @@
         <v>1.3584905660377358</v>
       </c>
       <c r="G2">
-        <f>SQRT((1/(B2-D2)-B2/((B2-D2)^2))^2*C2^2+(E2*B2/((B2-D2)^2)))</f>
-        <v>0.1791964237746386</v>
+        <f>SQRT((1/(B2-D2)-B2/((B2-D2)^2))^2*C2^2+(E2*B2/((B2-D2)^2))^2)</f>
+        <v>3.3136684213477138E-2</v>
       </c>
       <c r="H2">
         <f>AVERAGE(F2:F11)</f>
-        <v>1.324130556106335</v>
+        <v>1.2952567482876718</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -973,8 +973,8 @@
         <v>1.2949640287769784</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">SQRT((1/(B3-D3)-B3/((B3-D3)^2))^2*C3^2+(E3*B3/((B3-D3)^2)))</f>
-        <v>0.15270515419428124</v>
+        <f t="shared" ref="G3:G11" si="1">SQRT((1/(B3-D3)-B3/((B3-D3)^2))^2*C3^2+(E3*B3/((B3-D3)^2))^2)</f>
+        <v>2.3887272989719582E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0.13834573306260098</v>
+        <v>1.9505422548630306E-2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -1031,11 +1031,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.13949917902197531</v>
+        <v>1.9918775952516322E-2</v>
       </c>
       <c r="H5">
         <f>AVERAGE(G2:G11)</f>
-        <v>0.14576160305264171</v>
+        <v>2.0372875114852067E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.12208228694690078</v>
+        <v>1.5197746919346109E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.11723945850683973</v>
+        <v>1.4114337183520615E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -1112,11 +1112,11 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1.596244131455399</v>
+        <v>1.3075060532687652</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.19407837870899261</v>
+        <v>1.6261257005624388E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.11840161257182541</v>
+        <v>1.439182158871731E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.11325771212150314</v>
+        <v>1.3155126982295522E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0.18281009161685935</v>
+        <v>3.4160305764673424E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
